--- a/Code/Results/Cases/Case_3_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.10197264154279</v>
+        <v>18.08982198144684</v>
       </c>
       <c r="C2">
-        <v>13.72313684349254</v>
+        <v>8.442805355930762</v>
       </c>
       <c r="D2">
-        <v>4.247982465141148</v>
+        <v>7.561073078221929</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.25615753688727</v>
+        <v>39.19551131286678</v>
       </c>
       <c r="G2">
-        <v>35.43879842474639</v>
+        <v>45.73263836846137</v>
       </c>
       <c r="H2">
-        <v>11.72726028060861</v>
+        <v>18.49891040264304</v>
       </c>
       <c r="I2">
-        <v>18.07904243377881</v>
+        <v>28.6133229083567</v>
       </c>
       <c r="J2">
-        <v>6.263706101065641</v>
+        <v>10.2849378823748</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.216612045079743</v>
+        <v>11.9214355413239</v>
       </c>
       <c r="M2">
-        <v>13.10387046049669</v>
+        <v>17.40694084634886</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.6572141180873</v>
+        <v>17.66818391846313</v>
       </c>
       <c r="C3">
-        <v>12.90675892009895</v>
+        <v>8.019438413419179</v>
       </c>
       <c r="D3">
-        <v>4.212660662817193</v>
+        <v>7.560786092553042</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.92243324063027</v>
+        <v>39.28936685984774</v>
       </c>
       <c r="G3">
-        <v>34.6611217079886</v>
+        <v>45.7939770487658</v>
       </c>
       <c r="H3">
-        <v>11.72352918032179</v>
+        <v>18.5593245895113</v>
       </c>
       <c r="I3">
-        <v>18.24341221996622</v>
+        <v>28.74338401402257</v>
       </c>
       <c r="J3">
-        <v>6.312527456918465</v>
+        <v>10.30159963985198</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.121400946888298</v>
+        <v>11.92822296155308</v>
       </c>
       <c r="M3">
-        <v>12.52614711778313</v>
+        <v>17.32174758916222</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.74481416330607</v>
+        <v>17.4069612433295</v>
       </c>
       <c r="C4">
-        <v>12.38011790958075</v>
+        <v>7.74620958989696</v>
       </c>
       <c r="D4">
-        <v>4.191481501149424</v>
+        <v>7.560880406984824</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.74493914522444</v>
+        <v>39.3572124746735</v>
       </c>
       <c r="G4">
-        <v>34.22237366855462</v>
+        <v>45.84705306802417</v>
       </c>
       <c r="H4">
-        <v>11.73182856384333</v>
+        <v>18.60021177369272</v>
       </c>
       <c r="I4">
-        <v>18.3625304325297</v>
+        <v>28.82957640436146</v>
       </c>
       <c r="J4">
-        <v>6.343362740926108</v>
+        <v>10.31236273761893</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.065156219551265</v>
+        <v>11.93377002426</v>
       </c>
       <c r="M4">
-        <v>12.16262509358658</v>
+        <v>17.27165983887944</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.37240786872442</v>
+        <v>17.30007595397914</v>
       </c>
       <c r="C5">
-        <v>12.15915533807222</v>
+        <v>7.631597293467757</v>
       </c>
       <c r="D5">
-        <v>4.182974508736492</v>
+        <v>7.560987126908891</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.67931839199243</v>
+        <v>39.38742054029444</v>
       </c>
       <c r="G5">
-        <v>34.05322981604922</v>
+        <v>45.8725412455187</v>
       </c>
       <c r="H5">
-        <v>11.73775973236343</v>
+        <v>18.61782527715954</v>
       </c>
       <c r="I5">
-        <v>18.41540651984047</v>
+        <v>28.86628995665529</v>
       </c>
       <c r="J5">
-        <v>6.356149826672494</v>
+        <v>10.31688316097339</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.042802009411546</v>
+        <v>11.93637809460386</v>
       </c>
       <c r="M5">
-        <v>12.01246040025755</v>
+        <v>17.25182156696818</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30990455408602</v>
+        <v>17.28230603094715</v>
       </c>
       <c r="C6">
-        <v>12.12208230413645</v>
+        <v>7.612370862127124</v>
       </c>
       <c r="D6">
-        <v>4.18156928557555</v>
+        <v>7.561008979591937</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.66882162004875</v>
+        <v>39.39259093499302</v>
       </c>
       <c r="G6">
-        <v>34.02572287263222</v>
+        <v>45.87700609534228</v>
       </c>
       <c r="H6">
-        <v>11.73889524636822</v>
+        <v>18.62080740218996</v>
       </c>
       <c r="I6">
-        <v>18.42444156094082</v>
+        <v>28.87248211525576</v>
       </c>
       <c r="J6">
-        <v>6.358286644437827</v>
+        <v>10.31764190199284</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.039124540489605</v>
+        <v>11.93683217594979</v>
       </c>
       <c r="M6">
-        <v>11.98740923848673</v>
+        <v>17.24856244390495</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.73983643216371</v>
+        <v>17.40552130637118</v>
       </c>
       <c r="C7">
-        <v>12.37716359579064</v>
+        <v>7.74467702339808</v>
       </c>
       <c r="D7">
-        <v>4.191366277277552</v>
+        <v>7.560881569402356</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.74402725059396</v>
+        <v>39.35760951655574</v>
       </c>
       <c r="G7">
-        <v>34.22005361858905</v>
+        <v>45.84738120833593</v>
       </c>
       <c r="H7">
-        <v>11.73189838221426</v>
+        <v>18.60044546516876</v>
       </c>
       <c r="I7">
-        <v>18.36322629624179</v>
+        <v>28.83006510501794</v>
       </c>
       <c r="J7">
-        <v>6.343534288249661</v>
+        <v>10.31242315700045</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.064852439946509</v>
+        <v>11.9338037893232</v>
       </c>
       <c r="M7">
-        <v>12.16060785966369</v>
+        <v>17.27138995496635</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.61436140798577</v>
+        <v>17.94501528444402</v>
       </c>
       <c r="C8">
-        <v>13.4469298265415</v>
+        <v>8.299622612932476</v>
       </c>
       <c r="D8">
-        <v>4.235695266947791</v>
+        <v>7.560918133500433</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.13529461152442</v>
+        <v>39.22574678943732</v>
       </c>
       <c r="G8">
-        <v>35.16256832516875</v>
+        <v>45.75057949435803</v>
       </c>
       <c r="H8">
-        <v>11.72370698009186</v>
+        <v>18.5189528413457</v>
       </c>
       <c r="I8">
-        <v>18.13179192221387</v>
+        <v>28.65685125443197</v>
       </c>
       <c r="J8">
-        <v>6.280364869004529</v>
+        <v>10.29057254488222</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.183328991062504</v>
+        <v>11.92348994836079</v>
       </c>
       <c r="M8">
-        <v>12.90660029546919</v>
+        <v>17.37711399264798</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94065927757564</v>
+        <v>18.97807487669221</v>
       </c>
       <c r="C9">
-        <v>15.34299499597115</v>
+        <v>9.280052971100057</v>
       </c>
       <c r="D9">
-        <v>4.326881642228355</v>
+        <v>7.563125389130161</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.12740494636989</v>
+        <v>39.04861130752529</v>
       </c>
       <c r="G9">
-        <v>37.32079498900816</v>
+        <v>45.68368950865604</v>
       </c>
       <c r="H9">
-        <v>11.79680820211272</v>
+        <v>18.38932852328471</v>
       </c>
       <c r="I9">
-        <v>17.83379349846135</v>
+        <v>28.36759075832932</v>
       </c>
       <c r="J9">
-        <v>6.163039663356342</v>
+        <v>10.25193121158746</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.432835718116676</v>
+        <v>11.91417901892353</v>
       </c>
       <c r="M9">
-        <v>14.29292048316764</v>
+        <v>17.60140496868804</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.14672654671304</v>
+        <v>19.71390572726199</v>
       </c>
       <c r="C10">
-        <v>16.61378614894242</v>
+        <v>9.932103934200732</v>
       </c>
       <c r="D10">
-        <v>4.396838673156139</v>
+        <v>7.566034987569202</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.00226795379414</v>
+        <v>38.96858840386424</v>
       </c>
       <c r="G10">
-        <v>39.09726885105014</v>
+        <v>45.71019801487279</v>
       </c>
       <c r="H10">
-        <v>11.91194939854114</v>
+        <v>18.31261362339652</v>
       </c>
       <c r="I10">
-        <v>17.72664656100948</v>
+        <v>28.18601094917585</v>
       </c>
       <c r="J10">
-        <v>6.080442114264685</v>
+        <v>10.22607960387522</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.62609699613814</v>
+        <v>11.91394775001516</v>
       </c>
       <c r="M10">
-        <v>15.25756643584351</v>
+        <v>17.77561550969306</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.1002118994723</v>
+        <v>20.04210021936856</v>
       </c>
       <c r="C11">
-        <v>17.16580415514866</v>
+        <v>10.21354708500522</v>
       </c>
       <c r="D11">
-        <v>4.429406220658542</v>
+        <v>7.567635350421521</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.43359981152874</v>
+        <v>38.94315025691058</v>
       </c>
       <c r="G11">
-        <v>39.94703512567877</v>
+        <v>45.73877972567181</v>
       </c>
       <c r="H11">
-        <v>11.97919852390682</v>
+        <v>18.28176006046956</v>
       </c>
       <c r="I11">
-        <v>17.70609071162074</v>
+        <v>28.11016933367537</v>
       </c>
       <c r="J11">
-        <v>6.043555460977672</v>
+        <v>10.21486445148456</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.716076883987252</v>
+        <v>11.9152671204699</v>
       </c>
       <c r="M11">
-        <v>15.6836706821664</v>
+        <v>17.85670799176268</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.45420385004436</v>
+        <v>20.16532332174136</v>
       </c>
       <c r="C12">
-        <v>17.37114152070014</v>
+        <v>10.31791735502302</v>
       </c>
       <c r="D12">
-        <v>4.441855319300004</v>
+        <v>7.56828090049236</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.60185196018438</v>
+        <v>38.93509959816603</v>
       </c>
       <c r="G12">
-        <v>40.27482126286787</v>
+        <v>45.75198195414164</v>
       </c>
       <c r="H12">
-        <v>12.00692867064759</v>
+        <v>18.27066013422768</v>
       </c>
       <c r="I12">
-        <v>17.70270229633427</v>
+        <v>28.08242609001982</v>
       </c>
       <c r="J12">
-        <v>6.029678091004011</v>
+        <v>10.21069548504503</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.750439449630588</v>
+        <v>11.91597055391902</v>
       </c>
       <c r="M12">
-        <v>15.84313810771182</v>
+        <v>17.8876624914454</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.37827778489239</v>
+        <v>20.13883379816205</v>
       </c>
       <c r="C13">
-        <v>17.32708209372347</v>
+        <v>10.29553778677852</v>
       </c>
       <c r="D13">
-        <v>4.439168835314459</v>
+        <v>7.56814011609795</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.56539531027838</v>
+        <v>38.93676300414286</v>
       </c>
       <c r="G13">
-        <v>40.20395953066165</v>
+        <v>45.74903279697145</v>
       </c>
       <c r="H13">
-        <v>12.00085376375645</v>
+        <v>18.27302471198169</v>
       </c>
       <c r="I13">
-        <v>17.70323095124583</v>
+        <v>28.08835760323259</v>
       </c>
       <c r="J13">
-        <v>6.032662926599329</v>
+        <v>10.2115898849737</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.743026103161153</v>
+        <v>11.91581000935542</v>
       </c>
       <c r="M13">
-        <v>15.80887870659873</v>
+        <v>17.88098521989203</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.12947601384557</v>
+        <v>20.05225967979787</v>
       </c>
       <c r="C14">
-        <v>17.18277121265185</v>
+        <v>10.222178020078</v>
       </c>
       <c r="D14">
-        <v>4.430428021324213</v>
+        <v>7.56768766959045</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.44734280975807</v>
+        <v>38.94245618612297</v>
       </c>
       <c r="G14">
-        <v>39.97388195628853</v>
+        <v>45.73981819646368</v>
       </c>
       <c r="H14">
-        <v>11.9814337938598</v>
+        <v>18.28083515412975</v>
       </c>
       <c r="I14">
-        <v>17.70572183741775</v>
+        <v>28.10786728871257</v>
       </c>
       <c r="J14">
-        <v>6.042411989649142</v>
+        <v>10.21451990769162</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.718898156950768</v>
+        <v>11.91532091374866</v>
       </c>
       <c r="M14">
-        <v>15.69682829609295</v>
+        <v>17.85924980344404</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.9761606292096</v>
+        <v>19.99908956253014</v>
       </c>
       <c r="C15">
-        <v>17.09389645182194</v>
+        <v>10.17695513337714</v>
       </c>
       <c r="D15">
-        <v>4.425089496650075</v>
+        <v>7.56741567257075</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.3756759960578</v>
+        <v>38.94614962349371</v>
       </c>
       <c r="G15">
-        <v>39.83373452461905</v>
+        <v>45.73448383639327</v>
       </c>
       <c r="H15">
-        <v>11.96983714201594</v>
+        <v>18.2856953436488</v>
       </c>
       <c r="I15">
-        <v>17.70783042632921</v>
+        <v>28.11994480831497</v>
       </c>
       <c r="J15">
-        <v>6.0483951492998</v>
+        <v>10.21632477365497</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.704156544156906</v>
+        <v>11.91504783960334</v>
       </c>
       <c r="M15">
-        <v>15.62794673244813</v>
+        <v>17.84596778395134</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.0834172853195</v>
+        <v>19.69231568474547</v>
       </c>
       <c r="C16">
-        <v>16.57718979273114</v>
+        <v>9.913403400705031</v>
       </c>
       <c r="D16">
-        <v>4.394726054830103</v>
+        <v>7.565935946236189</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>28.97476087244016</v>
+        <v>38.97047197555465</v>
       </c>
       <c r="G16">
-        <v>39.04257305556548</v>
+        <v>45.70866293722484</v>
       </c>
       <c r="H16">
-        <v>11.90786449687517</v>
+        <v>18.31471153879571</v>
       </c>
       <c r="I16">
-        <v>17.72858606319677</v>
+        <v>28.19110376777968</v>
       </c>
       <c r="J16">
-        <v>6.082865901438908</v>
+        <v>10.2268234718303</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.620257445791316</v>
+        <v>11.91389010515547</v>
       </c>
       <c r="M16">
-        <v>15.2294580028481</v>
+        <v>17.77035144124171</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.52301328070914</v>
+        <v>19.50235922218152</v>
       </c>
       <c r="C17">
-        <v>16.2535608369533</v>
+        <v>9.747816929583651</v>
       </c>
       <c r="D17">
-        <v>4.376295887802979</v>
+        <v>7.565098876954933</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>28.73744135533963</v>
+        <v>38.98820547440967</v>
       </c>
       <c r="G17">
-        <v>38.56788891024183</v>
+        <v>45.69705760580956</v>
       </c>
       <c r="H17">
-        <v>11.87374442476845</v>
+        <v>18.33354940347661</v>
       </c>
       <c r="I17">
-        <v>17.74877723854035</v>
+        <v>28.23649188877577</v>
       </c>
       <c r="J17">
-        <v>6.104183104254512</v>
+        <v>10.23340336424472</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.569310857135979</v>
+        <v>11.9135440249997</v>
       </c>
       <c r="M17">
-        <v>14.98169149246225</v>
+        <v>17.72442230393587</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.19596326637324</v>
+        <v>19.39249225674577</v>
       </c>
       <c r="C18">
-        <v>16.06496039164594</v>
+        <v>9.651148357691316</v>
       </c>
       <c r="D18">
-        <v>4.365764696620699</v>
+        <v>7.564643484355623</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>28.60407392941659</v>
+        <v>38.99943708801568</v>
       </c>
       <c r="G18">
-        <v>38.29878130370528</v>
+        <v>45.69193774129625</v>
       </c>
       <c r="H18">
-        <v>11.85551160178274</v>
+        <v>18.34476500705215</v>
       </c>
       <c r="I18">
-        <v>17.76302224203875</v>
+        <v>28.26323395705616</v>
       </c>
       <c r="J18">
-        <v>6.116509409444573</v>
+        <v>10.23723925315056</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.540202419760619</v>
+        <v>11.91347912287888</v>
       </c>
       <c r="M18">
-        <v>14.83798794776176</v>
+        <v>17.69817970632444</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.08441525483104</v>
+        <v>19.35519229253637</v>
       </c>
       <c r="C19">
-        <v>16.00068011151749</v>
+        <v>9.618173655220257</v>
       </c>
       <c r="D19">
-        <v>4.362210660728045</v>
+        <v>7.564493781614173</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>28.55945230233914</v>
+        <v>39.0034169449421</v>
       </c>
       <c r="G19">
-        <v>38.20833896213133</v>
+        <v>45.69047121403848</v>
       </c>
       <c r="H19">
-        <v>11.84957355789373</v>
+        <v>18.34862771549535</v>
       </c>
       <c r="I19">
-        <v>17.76828712653205</v>
+        <v>28.27239747009333</v>
       </c>
       <c r="J19">
-        <v>6.120694320917678</v>
+        <v>10.23854684331266</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.530380500473351</v>
+        <v>11.91348021967999</v>
       </c>
       <c r="M19">
-        <v>14.78912934965265</v>
+        <v>17.68932496427648</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.58315689516497</v>
+        <v>19.52264431866636</v>
       </c>
       <c r="C20">
-        <v>16.28826572734536</v>
+        <v>9.765591832694367</v>
       </c>
       <c r="D20">
-        <v>4.378250568320157</v>
+        <v>7.565185288496895</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>28.76237934391191</v>
+        <v>38.9862108855652</v>
       </c>
       <c r="G20">
-        <v>38.61801430851558</v>
+        <v>45.69813202318736</v>
       </c>
       <c r="H20">
-        <v>11.8772315737933</v>
+        <v>18.33150467863901</v>
       </c>
       <c r="I20">
-        <v>17.74635305936147</v>
+        <v>28.2315943891734</v>
       </c>
       <c r="J20">
-        <v>6.101907158657986</v>
+        <v>10.23269761598145</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.574714119130539</v>
+        <v>11.91356698867425</v>
       </c>
       <c r="M20">
-        <v>15.00819081682031</v>
+        <v>17.72929359870236</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.20274601342853</v>
+        <v>20.07771817087104</v>
       </c>
       <c r="C21">
-        <v>17.22525878173261</v>
+        <v>10.24378559689209</v>
       </c>
       <c r="D21">
-        <v>4.432992165902518</v>
+        <v>7.567819493513762</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.48188332135728</v>
+        <v>38.94074098033621</v>
       </c>
       <c r="G21">
-        <v>40.04129836137464</v>
+        <v>45.74246017456361</v>
       </c>
       <c r="H21">
-        <v>11.98707544728894</v>
+        <v>18.27852518182733</v>
       </c>
       <c r="I21">
-        <v>17.70486810772311</v>
+        <v>28.10211028975069</v>
       </c>
       <c r="J21">
-        <v>6.039546056046734</v>
+        <v>10.21365717599845</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.725977326415855</v>
+        <v>11.91545905005156</v>
       </c>
       <c r="M21">
-        <v>15.72979186636771</v>
+        <v>17.8656274805245</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.22008316572083</v>
+        <v>20.43428195371119</v>
       </c>
       <c r="C22">
-        <v>17.81610307245673</v>
+        <v>10.54344647737198</v>
       </c>
       <c r="D22">
-        <v>4.469453397044868</v>
+        <v>7.569771367162661</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.98083120783118</v>
+        <v>38.92024803414591</v>
       </c>
       <c r="G22">
-        <v>41.00647790589582</v>
+        <v>45.78529686370704</v>
       </c>
       <c r="H22">
-        <v>12.07212239138797</v>
+        <v>18.24730286923567</v>
       </c>
       <c r="I22">
-        <v>17.70354514158131</v>
+        <v>28.02317774285186</v>
       </c>
       <c r="J22">
-        <v>5.999314593229348</v>
+        <v>10.20166743122746</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.826519486738739</v>
+        <v>11.9178830920141</v>
       </c>
       <c r="M22">
-        <v>16.19037510594741</v>
+        <v>17.95615773336819</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.68083312422483</v>
+        <v>20.24458156205421</v>
       </c>
       <c r="C23">
-        <v>17.50270960448747</v>
+        <v>10.38469552711177</v>
       </c>
       <c r="D23">
-        <v>4.449927182321698</v>
+        <v>7.568708636216535</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.7118669102839</v>
+        <v>38.93033990249053</v>
       </c>
       <c r="G23">
-        <v>40.48813414291284</v>
+        <v>45.76116517786006</v>
       </c>
       <c r="H23">
-        <v>12.02547628909341</v>
+        <v>18.26365478245104</v>
       </c>
       <c r="I23">
-        <v>17.70177468844897</v>
+        <v>28.06478322244114</v>
       </c>
       <c r="J23">
-        <v>6.020741643981081</v>
+        <v>10.20802514269252</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.772706385106192</v>
+        <v>11.91648104114444</v>
       </c>
       <c r="M23">
-        <v>15.94557674900112</v>
+        <v>17.90771556078315</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.55598113399131</v>
+        <v>19.51347546852778</v>
       </c>
       <c r="C24">
-        <v>16.27258356726874</v>
+        <v>9.757560378186279</v>
       </c>
       <c r="D24">
-        <v>4.377366656876733</v>
+        <v>7.56514614132228</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>28.751095323729</v>
+        <v>38.98710941121958</v>
       </c>
       <c r="G24">
-        <v>38.59534079698676</v>
+        <v>45.69764144424447</v>
       </c>
       <c r="H24">
-        <v>11.87565073469623</v>
+        <v>18.33242789813332</v>
       </c>
       <c r="I24">
-        <v>17.74744084341665</v>
+        <v>28.23380653100818</v>
       </c>
       <c r="J24">
-        <v>6.10293589265556</v>
+        <v>10.23301651958102</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.572270738644741</v>
+        <v>11.91355618912263</v>
       </c>
       <c r="M24">
-        <v>14.99621438985557</v>
+        <v>17.7270907781973</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.08305352730746</v>
+        <v>18.70212510385227</v>
       </c>
       <c r="C25">
-        <v>14.85163562104064</v>
+        <v>9.026660735606756</v>
       </c>
       <c r="D25">
-        <v>4.301722797035112</v>
+        <v>7.562301077690593</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.83396688534812</v>
+        <v>39.08776042634338</v>
       </c>
       <c r="G25">
-        <v>36.70348915305693</v>
+        <v>45.68854022448301</v>
       </c>
       <c r="H25">
-        <v>11.76675825927366</v>
+        <v>18.4211514549391</v>
       </c>
       <c r="I25">
-        <v>17.89605034099159</v>
+        <v>28.44042520071435</v>
       </c>
       <c r="J25">
-        <v>6.194117041581086</v>
+        <v>10.26193705213122</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.363553514744668</v>
+        <v>11.91553372237188</v>
       </c>
       <c r="M25">
-        <v>13.92691937490678</v>
+        <v>17.53900458636246</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_98/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_98/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.08982198144684</v>
+        <v>21.10197264154281</v>
       </c>
       <c r="C2">
-        <v>8.442805355930762</v>
+        <v>13.72313684349262</v>
       </c>
       <c r="D2">
-        <v>7.561073078221929</v>
+        <v>4.247982465141144</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.19551131286678</v>
+        <v>27.25615753688734</v>
       </c>
       <c r="G2">
-        <v>45.73263836846137</v>
+        <v>35.43879842474644</v>
       </c>
       <c r="H2">
-        <v>18.49891040264304</v>
+        <v>11.72726028060859</v>
       </c>
       <c r="I2">
-        <v>28.6133229083567</v>
+        <v>18.07904243377877</v>
       </c>
       <c r="J2">
-        <v>10.2849378823748</v>
+        <v>6.263706101065574</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.9214355413239</v>
+        <v>7.216612045079699</v>
       </c>
       <c r="M2">
-        <v>17.40694084634886</v>
+        <v>13.10387046049669</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.66818391846313</v>
+        <v>19.6572141180873</v>
       </c>
       <c r="C3">
-        <v>8.019438413419179</v>
+        <v>12.90675892009898</v>
       </c>
       <c r="D3">
-        <v>7.560786092553042</v>
+        <v>4.21266066281719</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.28936685984774</v>
+        <v>26.92243324063022</v>
       </c>
       <c r="G3">
-        <v>45.7939770487658</v>
+        <v>34.66112170798853</v>
       </c>
       <c r="H3">
-        <v>18.5593245895113</v>
+        <v>11.72352918032176</v>
       </c>
       <c r="I3">
-        <v>28.74338401402257</v>
+        <v>18.24341221996619</v>
       </c>
       <c r="J3">
-        <v>10.30159963985198</v>
+        <v>6.312527456918566</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.92822296155308</v>
+        <v>7.121400946888298</v>
       </c>
       <c r="M3">
-        <v>17.32174758916222</v>
+        <v>12.52614711778311</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.4069612433295</v>
+        <v>18.74481416330606</v>
       </c>
       <c r="C4">
-        <v>7.74620958989696</v>
+        <v>12.38011790958059</v>
       </c>
       <c r="D4">
-        <v>7.560880406984824</v>
+        <v>4.191481501149285</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>39.3572124746735</v>
+        <v>26.74493914522454</v>
       </c>
       <c r="G4">
-        <v>45.84705306802417</v>
+        <v>34.22237366855492</v>
       </c>
       <c r="H4">
-        <v>18.60021177369272</v>
+        <v>11.73182856384334</v>
       </c>
       <c r="I4">
-        <v>28.82957640436146</v>
+        <v>18.36253043252982</v>
       </c>
       <c r="J4">
-        <v>10.31236273761893</v>
+        <v>6.343362740926139</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.93377002426</v>
+        <v>7.065156219551286</v>
       </c>
       <c r="M4">
-        <v>17.27165983887944</v>
+        <v>12.16262509358661</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.30007595397914</v>
+        <v>18.37240786872443</v>
       </c>
       <c r="C5">
-        <v>7.631597293467757</v>
+        <v>12.15915533807226</v>
       </c>
       <c r="D5">
-        <v>7.560987126908891</v>
+        <v>4.182974508736431</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>39.38742054029444</v>
+        <v>26.67931839199236</v>
       </c>
       <c r="G5">
-        <v>45.8725412455187</v>
+        <v>34.05322981604935</v>
       </c>
       <c r="H5">
-        <v>18.61782527715954</v>
+        <v>11.73775973236339</v>
       </c>
       <c r="I5">
-        <v>28.86628995665529</v>
+        <v>18.41540651984047</v>
       </c>
       <c r="J5">
-        <v>10.31688316097339</v>
+        <v>6.356149826672527</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.93637809460386</v>
+        <v>7.042802009411497</v>
       </c>
       <c r="M5">
-        <v>17.25182156696818</v>
+        <v>12.01246040025752</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.28230603094715</v>
+        <v>18.30990455408601</v>
       </c>
       <c r="C6">
-        <v>7.612370862127124</v>
+        <v>12.1220823041363</v>
       </c>
       <c r="D6">
-        <v>7.561008979591937</v>
+        <v>4.181569285575555</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>39.39259093499302</v>
+        <v>26.66882162004903</v>
       </c>
       <c r="G6">
-        <v>45.87700609534228</v>
+        <v>34.02572287263263</v>
       </c>
       <c r="H6">
-        <v>18.62080740218996</v>
+        <v>11.73889524636835</v>
       </c>
       <c r="I6">
-        <v>28.87248211525576</v>
+        <v>18.42444156094101</v>
       </c>
       <c r="J6">
-        <v>10.31764190199284</v>
+        <v>6.358286644437795</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.93683217594979</v>
+        <v>7.039124540489578</v>
       </c>
       <c r="M6">
-        <v>17.24856244390495</v>
+        <v>11.98740923848673</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.40552130637118</v>
+        <v>18.73983643216373</v>
       </c>
       <c r="C7">
-        <v>7.74467702339808</v>
+        <v>12.37716359579063</v>
       </c>
       <c r="D7">
-        <v>7.560881569402356</v>
+        <v>4.191366277277483</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39.35760951655574</v>
+        <v>26.74402725059386</v>
       </c>
       <c r="G7">
-        <v>45.84738120833593</v>
+        <v>34.22005361858886</v>
       </c>
       <c r="H7">
-        <v>18.60044546516876</v>
+        <v>11.73189838221427</v>
       </c>
       <c r="I7">
-        <v>28.83006510501794</v>
+        <v>18.3632262962417</v>
       </c>
       <c r="J7">
-        <v>10.31242315700045</v>
+        <v>6.34353428824966</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.9338037893232</v>
+        <v>7.064852439946503</v>
       </c>
       <c r="M7">
-        <v>17.27138995496635</v>
+        <v>12.16060785966369</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.94501528444402</v>
+        <v>20.61436140798579</v>
       </c>
       <c r="C8">
-        <v>8.299622612932476</v>
+        <v>13.44692982654158</v>
       </c>
       <c r="D8">
-        <v>7.560918133500433</v>
+        <v>4.235695266947903</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.22574678943732</v>
+        <v>27.13529461152449</v>
       </c>
       <c r="G8">
-        <v>45.75057949435803</v>
+        <v>35.1625683251689</v>
       </c>
       <c r="H8">
-        <v>18.5189528413457</v>
+        <v>11.72370698009184</v>
       </c>
       <c r="I8">
-        <v>28.65685125443197</v>
+        <v>18.13179192221394</v>
       </c>
       <c r="J8">
-        <v>10.29057254488222</v>
+        <v>6.280364869004494</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.92348994836079</v>
+        <v>7.183328991062457</v>
       </c>
       <c r="M8">
-        <v>17.37711399264798</v>
+        <v>12.90660029546914</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.97807487669221</v>
+        <v>23.94065927757563</v>
       </c>
       <c r="C9">
-        <v>9.280052971100057</v>
+        <v>15.34299499597117</v>
       </c>
       <c r="D9">
-        <v>7.563125389130161</v>
+        <v>4.326881642228283</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.04861130752529</v>
+        <v>28.12740494637004</v>
       </c>
       <c r="G9">
-        <v>45.68368950865604</v>
+        <v>37.32079498900853</v>
       </c>
       <c r="H9">
-        <v>18.38932852328471</v>
+        <v>11.79680820211276</v>
       </c>
       <c r="I9">
-        <v>28.36759075832932</v>
+        <v>17.83379349846151</v>
       </c>
       <c r="J9">
-        <v>10.25193121158746</v>
+        <v>6.163039663356274</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.91417901892353</v>
+        <v>7.432835718116608</v>
       </c>
       <c r="M9">
-        <v>17.60140496868804</v>
+        <v>14.29292048316761</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.71390572726199</v>
+        <v>26.14672654671308</v>
       </c>
       <c r="C10">
-        <v>9.932103934200732</v>
+        <v>16.61378614894234</v>
       </c>
       <c r="D10">
-        <v>7.566034987569202</v>
+        <v>4.396838673156181</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.96858840386424</v>
+        <v>29.00226795379416</v>
       </c>
       <c r="G10">
-        <v>45.71019801487279</v>
+        <v>39.09726885105021</v>
       </c>
       <c r="H10">
-        <v>18.31261362339652</v>
+        <v>11.91194939854112</v>
       </c>
       <c r="I10">
-        <v>28.18601094917585</v>
+        <v>17.72664656100943</v>
       </c>
       <c r="J10">
-        <v>10.22607960387522</v>
+        <v>6.08044211426455</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.91394775001516</v>
+        <v>7.626096996138132</v>
       </c>
       <c r="M10">
-        <v>17.77561550969306</v>
+        <v>15.25756643584348</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.04210021936856</v>
+        <v>27.10021189947231</v>
       </c>
       <c r="C11">
-        <v>10.21354708500522</v>
+        <v>17.16580415514871</v>
       </c>
       <c r="D11">
-        <v>7.567635350421521</v>
+        <v>4.429406220658421</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.94315025691058</v>
+        <v>29.4335998115287</v>
       </c>
       <c r="G11">
-        <v>45.73877972567181</v>
+        <v>39.94703512567892</v>
       </c>
       <c r="H11">
-        <v>18.28176006046956</v>
+        <v>11.97919852390677</v>
       </c>
       <c r="I11">
-        <v>28.11016933367537</v>
+        <v>17.7060907116207</v>
       </c>
       <c r="J11">
-        <v>10.21486445148456</v>
+        <v>6.043555460977739</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.9152671204699</v>
+        <v>7.716076883987231</v>
       </c>
       <c r="M11">
-        <v>17.85670799176268</v>
+        <v>15.68367068216639</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.16532332174136</v>
+        <v>27.4542038500443</v>
       </c>
       <c r="C12">
-        <v>10.31791735502302</v>
+        <v>17.37114152070017</v>
       </c>
       <c r="D12">
-        <v>7.56828090049236</v>
+        <v>4.441855319300048</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.93509959816603</v>
+        <v>29.60185196018447</v>
       </c>
       <c r="G12">
-        <v>45.75198195414164</v>
+        <v>40.274821262868</v>
       </c>
       <c r="H12">
-        <v>18.27066013422768</v>
+        <v>12.00692867064765</v>
       </c>
       <c r="I12">
-        <v>28.08242609001982</v>
+        <v>17.70270229633439</v>
       </c>
       <c r="J12">
-        <v>10.21069548504503</v>
+        <v>6.029678091004046</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.91597055391902</v>
+        <v>7.750439449630623</v>
       </c>
       <c r="M12">
-        <v>17.8876624914454</v>
+        <v>15.84313810771184</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.13883379816205</v>
+        <v>27.37827778489237</v>
       </c>
       <c r="C13">
-        <v>10.29553778677852</v>
+        <v>17.32708209372355</v>
       </c>
       <c r="D13">
-        <v>7.56814011609795</v>
+        <v>4.439168835314565</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.93676300414286</v>
+        <v>29.56539531027849</v>
       </c>
       <c r="G13">
-        <v>45.74903279697145</v>
+        <v>40.20395953066177</v>
       </c>
       <c r="H13">
-        <v>18.27302471198169</v>
+        <v>12.00085376375645</v>
       </c>
       <c r="I13">
-        <v>28.08835760323259</v>
+        <v>17.70323095124592</v>
       </c>
       <c r="J13">
-        <v>10.2115898849737</v>
+        <v>6.032662926599464</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.91581000935542</v>
+        <v>7.743026103161179</v>
       </c>
       <c r="M13">
-        <v>17.88098521989203</v>
+        <v>15.80887870659873</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.05225967979787</v>
+        <v>27.12947601384558</v>
       </c>
       <c r="C14">
-        <v>10.222178020078</v>
+        <v>17.18277121265184</v>
       </c>
       <c r="D14">
-        <v>7.56768766959045</v>
+        <v>4.430428021324265</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.94245618612297</v>
+        <v>29.44734280975807</v>
       </c>
       <c r="G14">
-        <v>45.73981819646368</v>
+        <v>39.97388195628863</v>
       </c>
       <c r="H14">
-        <v>18.28083515412975</v>
+        <v>11.98143379385976</v>
       </c>
       <c r="I14">
-        <v>28.10786728871257</v>
+        <v>17.70572183741775</v>
       </c>
       <c r="J14">
-        <v>10.21451990769162</v>
+        <v>6.042411989649075</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.91532091374866</v>
+        <v>7.718898156950721</v>
       </c>
       <c r="M14">
-        <v>17.85924980344404</v>
+        <v>15.69682829609293</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.99908956253014</v>
+        <v>26.97616062920965</v>
       </c>
       <c r="C15">
-        <v>10.17695513337714</v>
+        <v>17.09389645182172</v>
       </c>
       <c r="D15">
-        <v>7.56741567257075</v>
+        <v>4.425089496650073</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.94614962349371</v>
+        <v>29.37567599605769</v>
       </c>
       <c r="G15">
-        <v>45.73448383639327</v>
+        <v>39.83373452461889</v>
       </c>
       <c r="H15">
-        <v>18.2856953436488</v>
+        <v>11.96983714201592</v>
       </c>
       <c r="I15">
-        <v>28.11994480831497</v>
+        <v>17.7078304263291</v>
       </c>
       <c r="J15">
-        <v>10.21632477365497</v>
+        <v>6.048395149299735</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.91504783960334</v>
+        <v>7.704156544156919</v>
       </c>
       <c r="M15">
-        <v>17.84596778395134</v>
+        <v>15.6279467324481</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.69231568474547</v>
+        <v>26.08341728531946</v>
       </c>
       <c r="C16">
-        <v>9.913403400705031</v>
+        <v>16.57718979273113</v>
       </c>
       <c r="D16">
-        <v>7.565935946236189</v>
+        <v>4.394726054830042</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.97047197555465</v>
+        <v>28.97476087244028</v>
       </c>
       <c r="G16">
-        <v>45.70866293722484</v>
+        <v>39.04257305556573</v>
       </c>
       <c r="H16">
-        <v>18.31471153879571</v>
+        <v>11.90786449687522</v>
       </c>
       <c r="I16">
-        <v>28.19110376777968</v>
+        <v>17.72858606319693</v>
       </c>
       <c r="J16">
-        <v>10.2268234718303</v>
+        <v>6.082865901438942</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.91389010515547</v>
+        <v>7.620257445791329</v>
       </c>
       <c r="M16">
-        <v>17.77035144124171</v>
+        <v>15.22945800284811</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.50235922218152</v>
+        <v>25.52301328070918</v>
       </c>
       <c r="C17">
-        <v>9.747816929583651</v>
+        <v>16.25356083695317</v>
       </c>
       <c r="D17">
-        <v>7.565098876954933</v>
+        <v>4.376295887802981</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>38.98820547440967</v>
+        <v>28.73744135533958</v>
       </c>
       <c r="G17">
-        <v>45.69705760580956</v>
+        <v>38.56788891024183</v>
       </c>
       <c r="H17">
-        <v>18.33354940347661</v>
+        <v>11.87374442476841</v>
       </c>
       <c r="I17">
-        <v>28.23649188877577</v>
+        <v>17.74877723854027</v>
       </c>
       <c r="J17">
-        <v>10.23340336424472</v>
+        <v>6.104183104254443</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.9135440249997</v>
+        <v>7.569310857135979</v>
       </c>
       <c r="M17">
-        <v>17.72442230393587</v>
+        <v>14.98169149246225</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.39249225674577</v>
+        <v>25.19596326637326</v>
       </c>
       <c r="C18">
-        <v>9.651148357691316</v>
+        <v>16.064960391646</v>
       </c>
       <c r="D18">
-        <v>7.564643484355623</v>
+        <v>4.365764696620531</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>38.99943708801568</v>
+        <v>28.60407392941635</v>
       </c>
       <c r="G18">
-        <v>45.69193774129625</v>
+        <v>38.29878130370518</v>
       </c>
       <c r="H18">
-        <v>18.34476500705215</v>
+        <v>11.85551160178268</v>
       </c>
       <c r="I18">
-        <v>28.26323395705616</v>
+        <v>17.76302224203858</v>
       </c>
       <c r="J18">
-        <v>10.23723925315056</v>
+        <v>6.116509409444572</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.91347912287888</v>
+        <v>7.540202419760512</v>
       </c>
       <c r="M18">
-        <v>17.69817970632444</v>
+        <v>14.83798794776171</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.35519229253637</v>
+        <v>25.08441525483108</v>
       </c>
       <c r="C19">
-        <v>9.618173655220257</v>
+        <v>16.00068011151741</v>
       </c>
       <c r="D19">
-        <v>7.564493781614173</v>
+        <v>4.362210660728271</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.0034169449421</v>
+        <v>28.55945230233917</v>
       </c>
       <c r="G19">
-        <v>45.69047121403848</v>
+        <v>38.20833896213139</v>
       </c>
       <c r="H19">
-        <v>18.34862771549535</v>
+        <v>11.8495735578937</v>
       </c>
       <c r="I19">
-        <v>28.27239747009333</v>
+        <v>17.76828712653202</v>
       </c>
       <c r="J19">
-        <v>10.23854684331266</v>
+        <v>6.120694320917645</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.91348021967999</v>
+        <v>7.530380500473395</v>
       </c>
       <c r="M19">
-        <v>17.68932496427648</v>
+        <v>14.78912934965264</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.52264431866636</v>
+        <v>25.58315689516499</v>
       </c>
       <c r="C20">
-        <v>9.765591832694367</v>
+        <v>16.2882657273455</v>
       </c>
       <c r="D20">
-        <v>7.565185288496895</v>
+        <v>4.378250568320211</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>38.9862108855652</v>
+        <v>28.76237934391178</v>
       </c>
       <c r="G20">
-        <v>45.69813202318736</v>
+        <v>38.61801430851553</v>
       </c>
       <c r="H20">
-        <v>18.33150467863901</v>
+        <v>11.87723157379319</v>
       </c>
       <c r="I20">
-        <v>28.2315943891734</v>
+        <v>17.74635305936137</v>
       </c>
       <c r="J20">
-        <v>10.23269761598145</v>
+        <v>6.101907158657951</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.91356698867425</v>
+        <v>7.57471411913048</v>
       </c>
       <c r="M20">
-        <v>17.72929359870236</v>
+        <v>15.00819081682028</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.07771817087104</v>
+        <v>27.20274601342854</v>
       </c>
       <c r="C21">
-        <v>10.24378559689209</v>
+        <v>17.22525878173282</v>
       </c>
       <c r="D21">
-        <v>7.567819493513762</v>
+        <v>4.432992165902564</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.94074098033621</v>
+        <v>29.48188332135728</v>
       </c>
       <c r="G21">
-        <v>45.74246017456361</v>
+        <v>40.04129836137473</v>
       </c>
       <c r="H21">
-        <v>18.27852518182733</v>
+        <v>11.98707544728893</v>
       </c>
       <c r="I21">
-        <v>28.10211028975069</v>
+        <v>17.70486810772306</v>
       </c>
       <c r="J21">
-        <v>10.21365717599845</v>
+        <v>6.039546056046769</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.91545905005156</v>
+        <v>7.725977326415904</v>
       </c>
       <c r="M21">
-        <v>17.8656274805245</v>
+        <v>15.72979186636771</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.43428195371119</v>
+        <v>28.22008316572083</v>
       </c>
       <c r="C22">
-        <v>10.54344647737198</v>
+        <v>17.81610307245675</v>
       </c>
       <c r="D22">
-        <v>7.569771367162661</v>
+        <v>4.469453397044981</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.92024803414591</v>
+        <v>29.98083120783124</v>
       </c>
       <c r="G22">
-        <v>45.78529686370704</v>
+        <v>41.00647790589591</v>
       </c>
       <c r="H22">
-        <v>18.24730286923567</v>
+        <v>12.07212239138803</v>
       </c>
       <c r="I22">
-        <v>28.02317774285186</v>
+        <v>17.70354514158135</v>
       </c>
       <c r="J22">
-        <v>10.20166743122746</v>
+        <v>5.999314593229181</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.9178830920141</v>
+        <v>7.82651948673869</v>
       </c>
       <c r="M22">
-        <v>17.95615773336819</v>
+        <v>16.1903751059474</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.24458156205421</v>
+        <v>27.68083312422485</v>
       </c>
       <c r="C23">
-        <v>10.38469552711177</v>
+        <v>17.50270960448753</v>
       </c>
       <c r="D23">
-        <v>7.568708636216535</v>
+        <v>4.449927182321581</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.93033990249053</v>
+        <v>29.71186691028375</v>
       </c>
       <c r="G23">
-        <v>45.76116517786006</v>
+        <v>40.48813414291275</v>
       </c>
       <c r="H23">
-        <v>18.26365478245104</v>
+        <v>12.02547628909335</v>
       </c>
       <c r="I23">
-        <v>28.06478322244114</v>
+        <v>17.70177468844883</v>
       </c>
       <c r="J23">
-        <v>10.20802514269252</v>
+        <v>6.020741643981046</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.91648104114444</v>
+        <v>7.772706385106133</v>
       </c>
       <c r="M23">
-        <v>17.90771556078315</v>
+        <v>15.94557674900111</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.51347546852778</v>
+        <v>25.55598113399126</v>
       </c>
       <c r="C24">
-        <v>9.757560378186279</v>
+        <v>16.2725835672687</v>
       </c>
       <c r="D24">
-        <v>7.56514614132228</v>
+        <v>4.377366656876748</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>38.98710941121958</v>
+        <v>28.75109532372912</v>
       </c>
       <c r="G24">
-        <v>45.69764144424447</v>
+        <v>38.59534079698689</v>
       </c>
       <c r="H24">
-        <v>18.33242789813332</v>
+        <v>11.8756507346963</v>
       </c>
       <c r="I24">
-        <v>28.23380653100818</v>
+        <v>17.74744084341676</v>
       </c>
       <c r="J24">
-        <v>10.23301651958102</v>
+        <v>6.102935892655458</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.91355618912263</v>
+        <v>7.572270738644657</v>
       </c>
       <c r="M24">
-        <v>17.7270907781973</v>
+        <v>14.99621438985557</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.70212510385227</v>
+        <v>23.08305352730744</v>
       </c>
       <c r="C25">
-        <v>9.026660735606756</v>
+        <v>14.8516356210407</v>
       </c>
       <c r="D25">
-        <v>7.562301077690593</v>
+        <v>4.301722797035235</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>39.08776042634338</v>
+        <v>27.83396688534818</v>
       </c>
       <c r="G25">
-        <v>45.68854022448301</v>
+        <v>36.70348915305706</v>
       </c>
       <c r="H25">
-        <v>18.4211514549391</v>
+        <v>11.7667582592737</v>
       </c>
       <c r="I25">
-        <v>28.44042520071435</v>
+        <v>17.89605034099166</v>
       </c>
       <c r="J25">
-        <v>10.26193705213122</v>
+        <v>6.194117041581151</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.91553372237188</v>
+        <v>7.363553514744719</v>
       </c>
       <c r="M25">
-        <v>17.53900458636246</v>
+        <v>13.92691937490681</v>
       </c>
       <c r="N25">
         <v>0</v>
